--- a/Data/GDP.xlsx
+++ b/Data/GDP.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timodaehler/Desktop/COVID19-DOMINANCE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C117E88-461C-E44B-8FA8-A9A64E00837E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648430EE-BEEA-9540-B17C-07AE27262403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata - Countries" sheetId="2" r:id="rId2"/>
     <sheet name="Metadata - Indicators" sheetId="3" r:id="rId3"/>
     <sheet name="EM" sheetId="4" r:id="rId4"/>
-    <sheet name="GLOBAL" sheetId="5" r:id="rId5"/>
+    <sheet name="EM_GDP" sheetId="6" r:id="rId5"/>
+    <sheet name="GLOBAL" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="704">
   <si>
     <t>Iraq</t>
   </si>
@@ -2147,6 +2148,9 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>GDP</t>
   </si>
 </sst>
 </file>
@@ -2520,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL268"/>
   <sheetViews>
-    <sheetView topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A254" sqref="A254"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47538,7 +47542,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B31" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47830,10 +47834,306 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B9616C-5064-904C-941C-869086F455CB}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="5">
+        <f>ROUND(VLOOKUP(A2,Data!$A$5:$BL268,64,FALSE),0)</f>
+        <v>449663446954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" s="5">
+        <f>ROUND(VLOOKUP(A3,Data!$A$5:$BL269,64,FALSE),0)</f>
+        <v>38574069149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" s="5">
+        <f>ROUND(VLOOKUP(A4,Data!$A$5:$BL270,64,FALSE),0)</f>
+        <v>1839758040766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="5">
+        <f>ROUND(VLOOKUP(A5,Data!$A$5:$BL271,64,FALSE),0)</f>
+        <v>282318159745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" s="5">
+        <f>ROUND(VLOOKUP(A6,Data!$A$5:$BL272,64,FALSE),0)</f>
+        <v>14342902842916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B7" s="5">
+        <f>ROUND(VLOOKUP(A7,Data!$A$5:$BL273,64,FALSE),0)</f>
+        <v>323802808108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="5">
+        <f>ROUND(VLOOKUP(A8,Data!$A$5:$BL274,64,FALSE),0)</f>
+        <v>88941298258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>696</v>
+      </c>
+      <c r="B9" s="5">
+        <f>ROUND(VLOOKUP(A9,Data!$A$5:$BL275,64,FALSE),0)</f>
+        <v>303175127598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="5">
+        <f>ROUND(VLOOKUP(A10,Data!$A$5:$BL276,64,FALSE),0)</f>
+        <v>66983634224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5">
+        <f>ROUND(VLOOKUP(A11,Data!$A$5:$BL277,64,FALSE),0)</f>
+        <v>160967157504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B12" s="5">
+        <f>ROUND(VLOOKUP(A12,Data!$A$5:$BL278,64,FALSE),0)</f>
+        <v>1119190780753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="5">
+        <f>ROUND(VLOOKUP(A13,Data!$A$5:$BL279,64,FALSE),0)</f>
+        <v>180161741180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" s="5">
+        <f>ROUND(VLOOKUP(A14,Data!$A$5:$BL280,64,FALSE),0)</f>
+        <v>364701517788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="5">
+        <f>ROUND(VLOOKUP(A15,Data!$A$5:$BL281,64,FALSE),0)</f>
+        <v>1258286717125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B16" s="5">
+        <f>ROUND(VLOOKUP(A16,Data!$A$5:$BL282,64,FALSE),0)</f>
+        <v>66800800000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17" s="5">
+        <f>ROUND(VLOOKUP(A17,Data!$A$5:$BL283,64,FALSE),0)</f>
+        <v>226848050820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="5">
+        <f>ROUND(VLOOKUP(A18,Data!$A$5:$BL284,64,FALSE),0)</f>
+        <v>376795508680</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="5">
+        <f>ROUND(VLOOKUP(A19,Data!$A$5:$BL285,64,FALSE),0)</f>
+        <v>592164400688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B20" s="5">
+        <f>ROUND(VLOOKUP(A20,Data!$A$5:$BL286,64,FALSE),0)</f>
+        <v>183466208791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>519</v>
+      </c>
+      <c r="B21" s="5">
+        <f>ROUND(VLOOKUP(A21,Data!$A$5:$BL287,64,FALSE),0)</f>
+        <v>250077444017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>697</v>
+      </c>
+      <c r="B22" s="5">
+        <f>ROUND(VLOOKUP(A22,Data!$A$5:$BL288,64,FALSE),0)</f>
+        <v>1699876578871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>447</v>
+      </c>
+      <c r="B23" s="5">
+        <f>ROUND(VLOOKUP(A23,Data!$A$5:$BL289,64,FALSE),0)</f>
+        <v>792966838162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B24" s="5">
+        <f>ROUND(VLOOKUP(A24,Data!$A$5:$BL290,64,FALSE),0)</f>
+        <v>351431649241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5">
+        <f>ROUND(VLOOKUP(A25,Data!$A$5:$BL291,64,FALSE),0)</f>
+        <v>84008783756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="5">
+        <f>ROUND(VLOOKUP(A26,Data!$A$5:$BL292,64,FALSE),0)</f>
+        <v>754411708203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>412</v>
+      </c>
+      <c r="B27" s="5">
+        <f>ROUND(VLOOKUP(A27,Data!$A$5:$BL293,64,FALSE),0)</f>
+        <v>153781069118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>498</v>
+      </c>
+      <c r="B28" s="5">
+        <f>ROUND(VLOOKUP(A28,Data!$A$5:$BL294,64,FALSE),0)</f>
+        <v>56045912952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="5">
+        <f>ROUND(VLOOKUP(A29,Data!$A$5:$BL295,64,FALSE),0)</f>
+        <v>2875142314812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>522</v>
+      </c>
+      <c r="B30" s="5">
+        <f>ROUND(VLOOKUP(A30,Data!$A$5:$BL296,64,FALSE),0)</f>
+        <v>543649976166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>698</v>
+      </c>
+      <c r="B31" s="5">
+        <f>ROUND(VLOOKUP(A31,Data!$A$5:$BL297,64,FALSE),0)</f>
+        <v>246489245495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D28CAF6-9701-C341-8B07-26E21DEB95A4}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
